--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910.xlsx
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.415301317846144</v>
+        <v>-2.415119067571673</v>
       </c>
       <c r="C4">
-        <v>-0.4801933784158554</v>
+        <v>-0.480192058234555</v>
       </c>
       <c r="D4">
-        <v>0.405436227788003</v>
+        <v>0.4054362690549942</v>
       </c>
       <c r="E4">
-        <v>0.2983351837162955</v>
+        <v>0.2983370358695362</v>
       </c>
       <c r="F4">
-        <v>-4.454976863756292</v>
+        <v>-4.455663917623062</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.022085189943094</v>
+        <v>-2.022644358337272</v>
       </c>
       <c r="C5">
-        <v>0.01880879213581534</v>
+        <v>0.01881044535883712</v>
       </c>
       <c r="D5">
-        <v>-0.9234895421783968</v>
+        <v>-0.9234895478370921</v>
       </c>
       <c r="E5">
-        <v>-1.202077890651861</v>
+        <v>-1.202087655999101</v>
       </c>
       <c r="F5">
-        <v>-0.554851188271044</v>
+        <v>-0.5529547840696212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -599,19 +599,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-404.7088595184914</v>
+        <v>-416.9807322997127</v>
       </c>
       <c r="C6">
-        <v>10.38647611262637</v>
+        <v>-1.885370256218527</v>
       </c>
       <c r="D6">
-        <v>11.02774302424598</v>
+        <v>-1.2441032951615</v>
       </c>
       <c r="E6">
-        <v>10.10528435554812</v>
+        <v>-2.166561947370239</v>
       </c>
       <c r="F6">
-        <v>-407.8817826112592</v>
+        <v>-420.1536476012999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -624,19 +624,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.769667697190279E-07</v>
+        <v>8.769690146861965E-07</v>
       </c>
       <c r="C8">
-        <v>-0.002651715045349621</v>
+        <v>-0.002651715048803518</v>
       </c>
       <c r="D8">
-        <v>-0.006816097319362653</v>
+        <v>-0.00681609732030058</v>
       </c>
       <c r="E8">
-        <v>-0.002674133904972146</v>
+        <v>-0.002674133905767258</v>
       </c>
       <c r="F8">
-        <v>-1.094319188579234E-07</v>
+        <v>-1.09430887077136E-07</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -644,19 +644,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>190.5657639561933</v>
+        <v>190.5645184654843</v>
       </c>
       <c r="C9">
-        <v>7.83232549929357</v>
+        <v>7.832322146964811</v>
       </c>
       <c r="D9">
-        <v>0.5180901159470328</v>
+        <v>0.518089763091014</v>
       </c>
       <c r="E9">
-        <v>0.8699100619418281</v>
+        <v>0.8699060104668148</v>
       </c>
       <c r="F9">
-        <v>52.51216901995876</v>
+        <v>52.51154221775987</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -664,19 +664,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73.57690904541421</v>
+        <v>73.57520139607553</v>
       </c>
       <c r="C10">
-        <v>-22.02941279401272</v>
+        <v>-22.02941070006086</v>
       </c>
       <c r="D10">
-        <v>-7.94662632448668</v>
+        <v>-7.946629681017859</v>
       </c>
       <c r="E10">
-        <v>4.11241165405869</v>
+        <v>4.112408839058046</v>
       </c>
       <c r="F10">
-        <v>-7.779012734986141</v>
+        <v>-7.780249870384462</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.82380730178614</v>
+        <v>11.82340341100538</v>
       </c>
       <c r="C11">
-        <v>1.695943949093966</v>
+        <v>1.695941415252497</v>
       </c>
       <c r="D11">
-        <v>0.5643774267347087</v>
+        <v>0.564375583008103</v>
       </c>
       <c r="E11">
-        <v>-0.4410619013157018</v>
+        <v>-0.4410674856104758</v>
       </c>
       <c r="F11">
-        <v>2.896630049291414</v>
+        <v>2.896294355584047</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-2.597509282347872</v>
+        <v>-2.597419502485186</v>
       </c>
       <c r="C12">
-        <v>-12.57021825333268</v>
+        <v>-12.57021733443964</v>
       </c>
       <c r="D12">
-        <v>-6.388805317583032</v>
+        <v>-6.38880650104868</v>
       </c>
       <c r="E12">
-        <v>-1.204226839718405</v>
+        <v>-1.204229147466553</v>
       </c>
       <c r="F12">
-        <v>0.7433630442182833</v>
+        <v>0.7435462322295057</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,19 +724,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.783329231758007</v>
+        <v>-1.783470116797271</v>
       </c>
       <c r="C13">
-        <v>0.9912698752754581</v>
+        <v>0.991268256349069</v>
       </c>
       <c r="D13">
-        <v>0.3252414648603795</v>
+        <v>0.32524176043777</v>
       </c>
       <c r="E13">
-        <v>-0.4159442572833787</v>
+        <v>-0.4159479193721948</v>
       </c>
       <c r="F13">
-        <v>-0.6838831809638481</v>
+        <v>-0.6840346008625812</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -744,19 +744,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.08897085551260489</v>
+        <v>0.08905484065844399</v>
       </c>
       <c r="C14">
-        <v>-11.23471896474151</v>
+        <v>-11.2347189886607</v>
       </c>
       <c r="D14">
-        <v>0.5963720389267012</v>
+        <v>0.5963717511011408</v>
       </c>
       <c r="E14">
-        <v>-7.22679986790106</v>
+        <v>-7.226800117319835</v>
       </c>
       <c r="F14">
-        <v>-0.3101752059550487</v>
+        <v>-0.3099812209508728</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.625846345578058</v>
+        <v>1.62585675136983</v>
       </c>
       <c r="C15">
-        <v>0.2948012064208082</v>
+        <v>0.294800964876918</v>
       </c>
       <c r="D15">
-        <v>0.07371255548367196</v>
+        <v>0.07371263127050383</v>
       </c>
       <c r="E15">
-        <v>-0.06518543368779944</v>
+        <v>-0.06518435043015401</v>
       </c>
       <c r="F15">
-        <v>0.2664127592440825</v>
+        <v>0.266286889766114</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -784,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9665910231271467</v>
+        <v>0.9666745249976281</v>
       </c>
       <c r="C16">
-        <v>-2.897808946383386</v>
+        <v>-2.897808736144006</v>
       </c>
       <c r="D16">
-        <v>1.240120029151536</v>
+        <v>1.240120284137045</v>
       </c>
       <c r="E16">
-        <v>-1.563610213540422</v>
+        <v>-1.563609779387252</v>
       </c>
       <c r="F16">
-        <v>0.2042618697889118</v>
+        <v>0.2040567292006957</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-2.632983510976394E-17</v>
+        <v>2.132347467630082E-17</v>
       </c>
       <c r="C17">
-        <v>6.97391778557104E-18</v>
+        <v>9.006751923551594E-19</v>
       </c>
       <c r="D17">
-        <v>-2.99847122688038E-17</v>
+        <v>2.839828790923642E-17</v>
       </c>
       <c r="E17">
-        <v>5.89502110695944E-19</v>
+        <v>-3.07491457075569E-17</v>
       </c>
       <c r="F17">
-        <v>-4.691287208593953E-17</v>
+        <v>-7.26747296755335E-17</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -824,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.6069165504838927</v>
+        <v>-0.6068396262401864</v>
       </c>
       <c r="C18">
-        <v>-0.01570787792725878</v>
+        <v>-0.01570815236260374</v>
       </c>
       <c r="D18">
-        <v>2.968844782954086</v>
+        <v>2.968844832805313</v>
       </c>
       <c r="E18">
-        <v>0.5978000147461625</v>
+        <v>0.5978013871440925</v>
       </c>
       <c r="F18">
-        <v>0.3403769558042982</v>
+        <v>0.3405060692524758</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.2144945758953612</v>
+        <v>-0.2142653785314094</v>
       </c>
       <c r="C19">
-        <v>0.2135953582666041</v>
+        <v>0.2135948504637692</v>
       </c>
       <c r="D19">
-        <v>0.01806005652528785</v>
+        <v>0.01806005584569555</v>
       </c>
       <c r="E19">
-        <v>-0.06491679823231927</v>
+        <v>-0.06491786439553239</v>
       </c>
       <c r="F19">
-        <v>-0.2698885032177921</v>
+        <v>-0.2699758921386321</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -864,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.07695299420876132</v>
+        <v>0.07703794476136347</v>
       </c>
       <c r="C20">
-        <v>-1.619412052987126</v>
+        <v>-1.619412111697771</v>
       </c>
       <c r="D20">
-        <v>-1.79277900257043</v>
+        <v>-1.792778589417576</v>
       </c>
       <c r="E20">
-        <v>-1.409579841407593</v>
+        <v>-1.409579342395268</v>
       </c>
       <c r="F20">
-        <v>-0.2621642920057987</v>
+        <v>-0.2625464532707591</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.06173752965284658</v>
+        <v>-0.06192107509003245</v>
       </c>
       <c r="C21">
-        <v>-0.006153201477479268</v>
+        <v>-0.006153260042483763</v>
       </c>
       <c r="D21">
-        <v>0.01140020296662065</v>
+        <v>0.01140083591840674</v>
       </c>
       <c r="E21">
-        <v>-0.02420762842019606</v>
+        <v>-0.02420698103913076</v>
       </c>
       <c r="F21">
-        <v>0.255890599580212</v>
+        <v>0.2558927242139514</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1946086993588295</v>
+        <v>-0.1945398800576805</v>
       </c>
       <c r="C22">
-        <v>-0.004186477899399643</v>
+        <v>-0.004185845530382416</v>
       </c>
       <c r="D22">
-        <v>0.2496949170707458</v>
+        <v>0.2496952444187298</v>
       </c>
       <c r="E22">
-        <v>0.08744986515130793</v>
+        <v>0.08745000815539614</v>
       </c>
       <c r="F22">
-        <v>-0.1468414059706192</v>
+        <v>-0.1468497427042359</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -929,19 +929,19 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>4.108109794183356E-21</v>
+        <v>4.701032857261367E-21</v>
       </c>
       <c r="C24">
-        <v>-1.074037777118453E-19</v>
+        <v>-1.484001723589534E-19</v>
       </c>
       <c r="D24">
-        <v>-5.392211742220876E-19</v>
+        <v>-3.435565634063442E-19</v>
       </c>
       <c r="E24">
-        <v>-1.404804143021257E-19</v>
+        <v>-1.492472053062077E-19</v>
       </c>
       <c r="F24">
-        <v>3.642241673193491E-21</v>
+        <v>4.531626267810507E-21</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -949,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>312.0862829281255</v>
+        <v>312.0838609190079</v>
       </c>
       <c r="C25">
-        <v>-10.03188459893689</v>
+        <v>-10.03188592175282</v>
       </c>
       <c r="D25">
-        <v>1.902236221873576</v>
+        <v>1.902236536786827</v>
       </c>
       <c r="E25">
-        <v>-2.351688069394188</v>
+        <v>-2.351680231520456</v>
       </c>
       <c r="F25">
-        <v>37.83198746553263</v>
+        <v>37.83043260623922</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -969,19 +969,19 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>-6.643860027891284</v>
+        <v>-6.645813685878799</v>
       </c>
       <c r="C26">
-        <v>-1.304828227723551</v>
+        <v>-1.304828267721199</v>
       </c>
       <c r="D26">
-        <v>-0.5090196085629524</v>
+        <v>-0.5090190338844254</v>
       </c>
       <c r="E26">
-        <v>-0.7367888312565594</v>
+        <v>-0.7367867349800008</v>
       </c>
       <c r="F26">
-        <v>-2.014629173268958</v>
+        <v>-2.016272322920686</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -989,19 +989,19 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>-15.02420871328662</v>
+        <v>-15.02615584841459</v>
       </c>
       <c r="C27">
-        <v>-1.271830045880228</v>
+        <v>-1.271831476536</v>
       </c>
       <c r="D27">
-        <v>1.97237194179988</v>
+        <v>1.972372429765312</v>
       </c>
       <c r="E27">
-        <v>0.6784466626536576</v>
+        <v>0.678451850411062</v>
       </c>
       <c r="F27">
-        <v>1.505597286862427</v>
+        <v>1.503494304982304</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>-2.236620335195403</v>
+        <v>-2.236604887275721</v>
       </c>
       <c r="C28">
-        <v>-0.2980474774761266</v>
+        <v>-0.2980475220285347</v>
       </c>
       <c r="D28">
-        <v>-0.1450722783875138</v>
+        <v>-0.1450720172929971</v>
       </c>
       <c r="E28">
-        <v>-0.2126405404410781</v>
+        <v>-0.2126388039262394</v>
       </c>
       <c r="F28">
-        <v>0.4041117130043216</v>
+        <v>0.403747750939395</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1029,19 +1029,19 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0.3194847199103392</v>
+        <v>0.3196077678033966</v>
       </c>
       <c r="C29">
-        <v>-0.2664240028760016</v>
+        <v>-0.2664262609952013</v>
       </c>
       <c r="D29">
-        <v>0.7476146893832905</v>
+        <v>0.7476146924721891</v>
       </c>
       <c r="E29">
-        <v>0.5261796368346655</v>
+        <v>0.5261888247637341</v>
       </c>
       <c r="F29">
-        <v>-0.728454686151778</v>
+        <v>-0.7285642300772399</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1049,19 +1049,19 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>1.264855809957032</v>
+        <v>1.264662215498211</v>
       </c>
       <c r="C30">
-        <v>-0.2557009901598066</v>
+        <v>-0.2557009108221179</v>
       </c>
       <c r="D30">
-        <v>-0.09884522583023436</v>
+        <v>-0.09884513663118222</v>
       </c>
       <c r="E30">
-        <v>-0.1453241948671076</v>
+        <v>-0.1453241854062796</v>
       </c>
       <c r="F30">
-        <v>0.6548343591813737</v>
+        <v>0.6549211571973393</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1069,19 +1069,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>-0.1302698452985431</v>
+        <v>-0.1304549100732592</v>
       </c>
       <c r="C31">
-        <v>-0.07458056471991439</v>
+        <v>-0.07458150598870353</v>
       </c>
       <c r="D31">
-        <v>0.1756582879159789</v>
+        <v>0.1756582640634684</v>
       </c>
       <c r="E31">
-        <v>0.1527132898832692</v>
+        <v>0.1527158897192714</v>
       </c>
       <c r="F31">
-        <v>-0.170394959074669</v>
+        <v>-0.170093434894399</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>-0.4689304529491524</v>
+        <v>-0.4688834834564903</v>
       </c>
       <c r="C32">
-        <v>-0.08507675399121306</v>
+        <v>-0.08507684370078628</v>
       </c>
       <c r="D32">
-        <v>-0.003170030147936126</v>
+        <v>-0.003170117741539802</v>
       </c>
       <c r="E32">
-        <v>0.01761251772472704</v>
+        <v>0.01761279647076874</v>
       </c>
       <c r="F32">
-        <v>-0.1081858613492213</v>
+        <v>-0.1082817507246146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,19 +1109,19 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>-5.849694930446422E-17</v>
+        <v>-5.624611491955587E-17</v>
       </c>
       <c r="C33">
-        <v>-1.293478008835173E-17</v>
+        <v>-5.86471436777068E-18</v>
       </c>
       <c r="D33">
-        <v>2.37279268592148E-17</v>
+        <v>-2.435830304024395E-17</v>
       </c>
       <c r="E33">
-        <v>1.193989997999945E-17</v>
+        <v>-1.025665337285773E-18</v>
       </c>
       <c r="F33">
-        <v>-5.910695319689096E-17</v>
+        <v>5.08722350207378E-18</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.2455486383162596</v>
+        <v>0.2455501369275489</v>
       </c>
       <c r="C34">
-        <v>-0.03710742457383309</v>
+        <v>-0.0371071561500646</v>
       </c>
       <c r="D34">
-        <v>0.02795447169854083</v>
+        <v>0.02795439790298326</v>
       </c>
       <c r="E34">
-        <v>-0.1741520339067749</v>
+        <v>-0.1741521243889214</v>
       </c>
       <c r="F34">
-        <v>0.2073528179146915</v>
+        <v>0.207213294566748</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>-0.1292322471221826</v>
+        <v>-0.1292304487302784</v>
       </c>
       <c r="C35">
-        <v>-0.08425896766704813</v>
+        <v>-0.0842596712980144</v>
       </c>
       <c r="D35">
-        <v>0.02758490678005454</v>
+        <v>0.02758471191283721</v>
       </c>
       <c r="E35">
-        <v>0.09254007471925932</v>
+        <v>0.09254352560038831</v>
       </c>
       <c r="F35">
-        <v>-0.2166232039361183</v>
+        <v>-0.2166268448763572</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,19 +1169,19 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.5043199843603667</v>
+        <v>0.5045764070771432</v>
       </c>
       <c r="C36">
-        <v>-0.01485207840095921</v>
+        <v>-0.01485199598487297</v>
       </c>
       <c r="D36">
-        <v>-0.0342489101159248</v>
+        <v>-0.03424940477694814</v>
       </c>
       <c r="E36">
-        <v>-0.01161378818210455</v>
+        <v>-0.01161479131322264</v>
       </c>
       <c r="F36">
-        <v>0.1169355547599356</v>
+        <v>0.1170932028386152</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,19 +1189,19 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.6000810406531354</v>
+        <v>0.600077302755109</v>
       </c>
       <c r="C37">
-        <v>-0.004403515749392552</v>
+        <v>-0.004403442259076407</v>
       </c>
       <c r="D37">
-        <v>-0.001331608323884477</v>
+        <v>-0.00133221677880887</v>
       </c>
       <c r="E37">
-        <v>-0.001177033094397677</v>
+        <v>-0.001178029422782997</v>
       </c>
       <c r="F37">
-        <v>0.2105185179060778</v>
+        <v>0.2103701447447201</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,19 +1209,19 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>-0.06629032699383748</v>
+        <v>-0.06633746314789371</v>
       </c>
       <c r="C38">
-        <v>-0.008763335738655051</v>
+        <v>-0.008763873957865931</v>
       </c>
       <c r="D38">
-        <v>0.02274287879130119</v>
+        <v>0.02274261197050921</v>
       </c>
       <c r="E38">
-        <v>-0.006641311081413727</v>
+        <v>-0.006641360637779606</v>
       </c>
       <c r="F38">
-        <v>0.1373303106918284</v>
+        <v>0.1373345443384242</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <v>0.000876966769719028</v>
+        <v>0.0008769690146861965</v>
       </c>
       <c r="C41">
-        <v>-2.651715045349621</v>
+        <v>-2.651715048803518</v>
       </c>
       <c r="D41">
-        <v>-6.816097319362653</v>
+        <v>-6.81609732030058</v>
       </c>
       <c r="E41">
-        <v>-2.674133904972146</v>
+        <v>-2.674133905767258</v>
       </c>
       <c r="F41">
-        <v>-0.0001094319188579234</v>
+        <v>-0.000109430887077136</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>0.0001753933539438056</v>
+        <v>0.0001753938029372393</v>
       </c>
       <c r="C42">
-        <v>-0.5303430090699242</v>
+        <v>-0.5303430097607037</v>
       </c>
       <c r="D42">
-        <v>-1.363219463872531</v>
+        <v>-1.363219464060116</v>
       </c>
       <c r="E42">
-        <v>-0.5348267809944292</v>
+        <v>-0.5348267811534517</v>
       </c>
       <c r="F42">
-        <v>-2.188638377158467E-05</v>
+        <v>-2.18861774154272E-05</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <v>-7.223077667104701E-05</v>
+        <v>-7.223096156488993E-05</v>
       </c>
       <c r="C43">
-        <v>0.2184067217247809</v>
+        <v>0.2184067219748966</v>
       </c>
       <c r="D43">
-        <v>0.5614032597845693</v>
+        <v>0.5614032597734947</v>
       </c>
       <c r="E43">
-        <v>0.2202532359811113</v>
+        <v>0.2202532360119474</v>
       </c>
       <c r="F43">
-        <v>9.013286209514281E-06</v>
+        <v>9.013201226167375E-06</v>
       </c>
     </row>
   </sheetData>
